--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H2">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I2">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J2">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N2">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O2">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P2">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q2">
-        <v>43.8041513277775</v>
+        <v>25.1990128734105</v>
       </c>
       <c r="R2">
-        <v>175.21660531111</v>
+        <v>100.796051493642</v>
       </c>
       <c r="S2">
-        <v>0.1026799568173063</v>
+        <v>0.1243867770879445</v>
       </c>
       <c r="T2">
-        <v>0.06544367601461597</v>
+        <v>0.07861679351107068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H3">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I3">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J3">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P3">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q3">
-        <v>22.400521373415</v>
+        <v>13.658261062878</v>
       </c>
       <c r="R3">
-        <v>134.40312824049</v>
+        <v>81.94956637726801</v>
       </c>
       <c r="S3">
-        <v>0.05250836958571201</v>
+        <v>0.06741958832958136</v>
       </c>
       <c r="T3">
-        <v>0.05019977852158394</v>
+        <v>0.06391730670729544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H4">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I4">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J4">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N4">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O4">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P4">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q4">
-        <v>18.86582841829833</v>
+        <v>11.575440473769</v>
       </c>
       <c r="R4">
-        <v>113.19497050979</v>
+        <v>69.45264284261398</v>
       </c>
       <c r="S4">
-        <v>0.04422280511311227</v>
+        <v>0.05713841812528921</v>
       </c>
       <c r="T4">
-        <v>0.04227849845266345</v>
+        <v>0.05417021798220279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H5">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I5">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J5">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N5">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O5">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P5">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q5">
-        <v>29.30982305878125</v>
+        <v>14.6716252872405</v>
       </c>
       <c r="R5">
-        <v>117.239292235125</v>
+        <v>58.686501148962</v>
       </c>
       <c r="S5">
-        <v>0.06870425004878737</v>
+        <v>0.07242173307699251</v>
       </c>
       <c r="T5">
-        <v>0.04378905893990577</v>
+        <v>0.04577306823379072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H6">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I6">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J6">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N6">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O6">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P6">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q6">
-        <v>29.63880401706167</v>
+        <v>9.673314626212001</v>
       </c>
       <c r="R6">
-        <v>177.83282410237</v>
+        <v>58.03988775727201</v>
       </c>
       <c r="S6">
-        <v>0.06947540414185913</v>
+        <v>0.04774918907168035</v>
       </c>
       <c r="T6">
-        <v>0.06642083782330738</v>
+        <v>0.04526873626103291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H7">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I7">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J7">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N7">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O7">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P7">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q7">
-        <v>19.97569288271416</v>
+        <v>9.704179543593</v>
       </c>
       <c r="R7">
-        <v>119.854157296285</v>
+        <v>58.225077261558</v>
       </c>
       <c r="S7">
-        <v>0.04682440409003423</v>
+        <v>0.04790154375388138</v>
       </c>
       <c r="T7">
-        <v>0.04476571512828841</v>
+        <v>0.04541317649260079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H8">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I8">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J8">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N8">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O8">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P8">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q8">
-        <v>10.60918499405967</v>
+        <v>10.00951413648217</v>
       </c>
       <c r="R8">
-        <v>63.655109964358</v>
+        <v>60.05708481889301</v>
       </c>
       <c r="S8">
-        <v>0.02486866253623937</v>
+        <v>0.04940872921919055</v>
       </c>
       <c r="T8">
-        <v>0.02377528308909689</v>
+        <v>0.04684206738377635</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H9">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I9">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J9">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>24.489942</v>
       </c>
       <c r="N9">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O9">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P9">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q9">
-        <v>5.425313994458</v>
+        <v>5.425313994458001</v>
       </c>
       <c r="R9">
-        <v>48.827825950122</v>
+        <v>48.82782595012201</v>
       </c>
       <c r="S9">
-        <v>0.01271731079784714</v>
+        <v>0.02678030785772675</v>
       </c>
       <c r="T9">
-        <v>0.01823726932903446</v>
+        <v>0.03808370519908091</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H10">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I10">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J10">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N10">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O10">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P10">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q10">
-        <v>4.569225922406889</v>
+        <v>4.597979120859</v>
       </c>
       <c r="R10">
-        <v>41.123033301662</v>
+        <v>41.381812087731</v>
       </c>
       <c r="S10">
-        <v>0.01071058121616301</v>
+        <v>0.02269643683403163</v>
       </c>
       <c r="T10">
-        <v>0.01535951722928162</v>
+        <v>0.03227611923092333</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H11">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I11">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J11">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N11">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O11">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P11">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q11">
-        <v>7.0987183987875</v>
+        <v>5.827841013278834</v>
       </c>
       <c r="R11">
-        <v>42.592310392725</v>
+        <v>34.967046079673</v>
       </c>
       <c r="S11">
-        <v>0.01663988632473525</v>
+        <v>0.02876725229929945</v>
       </c>
       <c r="T11">
-        <v>0.01590829451983861</v>
+        <v>0.02727286436920743</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H12">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I12">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J12">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N12">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O12">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P12">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q12">
-        <v>7.178396231598446</v>
+        <v>3.842419541754223</v>
       </c>
       <c r="R12">
-        <v>64.60556608438601</v>
+        <v>34.581775875788</v>
       </c>
       <c r="S12">
-        <v>0.01682665666919656</v>
+        <v>0.01896686133776548</v>
       </c>
       <c r="T12">
-        <v>0.02413027993585568</v>
+        <v>0.02697236938338246</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H13">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I13">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J13">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N13">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O13">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P13">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q13">
-        <v>4.838030523441445</v>
+        <v>3.854679657989667</v>
       </c>
       <c r="R13">
-        <v>43.542274710973</v>
+        <v>34.692116921907</v>
       </c>
       <c r="S13">
-        <v>0.01134067777071078</v>
+        <v>0.01902737943634781</v>
       </c>
       <c r="T13">
-        <v>0.01626310767786368</v>
+        <v>0.0270584308819232</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H14">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I14">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J14">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N14">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O14">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P14">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q14">
-        <v>6.065349203228333</v>
+        <v>9.6382296701175</v>
       </c>
       <c r="R14">
-        <v>36.39209521937</v>
+        <v>57.829378020705</v>
       </c>
       <c r="S14">
-        <v>0.01421759754250595</v>
+        <v>0.04757600353323126</v>
       </c>
       <c r="T14">
-        <v>0.01359250445927052</v>
+        <v>0.04510454728491213</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H15">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I15">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J15">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>24.489942</v>
       </c>
       <c r="N15">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O15">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P15">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q15">
-        <v>3.10169197087</v>
+        <v>5.22407197773</v>
       </c>
       <c r="R15">
-        <v>27.91522773783</v>
+        <v>47.01664779957001</v>
       </c>
       <c r="S15">
-        <v>0.007270580252688486</v>
+        <v>0.0257869417286159</v>
       </c>
       <c r="T15">
-        <v>0.01042638120231251</v>
+        <v>0.03667106039242703</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H16">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I16">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J16">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N16">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O16">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P16">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q16">
-        <v>2.612260114547778</v>
+        <v>4.427425565415</v>
       </c>
       <c r="R16">
-        <v>23.51034103093</v>
+        <v>39.84683008873499</v>
       </c>
       <c r="S16">
-        <v>0.006123318170240338</v>
+        <v>0.02185455436866908</v>
       </c>
       <c r="T16">
-        <v>0.008781149130753974</v>
+        <v>0.03107889611483835</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H17">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I17">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J17">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N17">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O17">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P17">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q17">
-        <v>4.0583895943125</v>
+        <v>5.6116679991675</v>
       </c>
       <c r="R17">
-        <v>24.350337565875</v>
+        <v>33.670007995005</v>
       </c>
       <c r="S17">
-        <v>0.009513145573204183</v>
+        <v>0.02770018413064637</v>
       </c>
       <c r="T17">
-        <v>0.009094889149793452</v>
+        <v>0.02626122776472425</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H18">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I18">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J18">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N18">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O18">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P18">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q18">
-        <v>4.10394199819889</v>
+        <v>3.69989207542</v>
       </c>
       <c r="R18">
-        <v>36.93547798379</v>
+        <v>33.29902867878</v>
       </c>
       <c r="S18">
-        <v>0.009619923554792723</v>
+        <v>0.01826332059698784</v>
       </c>
       <c r="T18">
-        <v>0.01379545877129756</v>
+        <v>0.02597187908619612</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H19">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I19">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J19">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N19">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O19">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P19">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q19">
-        <v>2.765937684843889</v>
+        <v>3.711697425255</v>
       </c>
       <c r="R19">
-        <v>24.893439163595</v>
+        <v>33.405276827295</v>
       </c>
       <c r="S19">
-        <v>0.006483549011461702</v>
+        <v>0.01832159388831667</v>
       </c>
       <c r="T19">
-        <v>0.009297738445618466</v>
+        <v>0.02605474829217155</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H20">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I20">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J20">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N20">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O20">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P20">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q20">
-        <v>18.0558017241855</v>
+        <v>4.808293486321</v>
       </c>
       <c r="R20">
-        <v>72.223206896742</v>
+        <v>19.233173945284</v>
       </c>
       <c r="S20">
-        <v>0.04232404658335557</v>
+        <v>0.02373458567845395</v>
       </c>
       <c r="T20">
-        <v>0.02697548068857184</v>
+        <v>0.01500108825904032</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H21">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I21">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J21">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>24.489942</v>
       </c>
       <c r="N21">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O21">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P21">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q21">
-        <v>9.233357117463001</v>
+        <v>2.606170647756</v>
       </c>
       <c r="R21">
-        <v>55.40014270477801</v>
+        <v>15.637023886536</v>
       </c>
       <c r="S21">
-        <v>0.02164362694771951</v>
+        <v>0.01286451850491455</v>
       </c>
       <c r="T21">
-        <v>0.0206920399119563</v>
+        <v>0.01219623844187016</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H22">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I22">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J22">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N22">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O22">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P22">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q22">
-        <v>7.776378424373001</v>
+        <v>2.208741878538</v>
       </c>
       <c r="R22">
-        <v>46.65827054623801</v>
+        <v>13.252451271228</v>
       </c>
       <c r="S22">
-        <v>0.01822836823922927</v>
+        <v>0.01090273992361075</v>
       </c>
       <c r="T22">
-        <v>0.0174269369938346</v>
+        <v>0.01033636942783792</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H23">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I23">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J23">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N23">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O23">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P23">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q23">
-        <v>12.08132877088125</v>
+        <v>2.799533483981</v>
       </c>
       <c r="R23">
-        <v>48.32531508352501</v>
+        <v>11.198133935924</v>
       </c>
       <c r="S23">
-        <v>0.02831946924863997</v>
+        <v>0.01381899160778719</v>
       </c>
       <c r="T23">
-        <v>0.01804958073474281</v>
+        <v>0.008734086011349181</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H24">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I24">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J24">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N24">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O24">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P24">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q24">
-        <v>12.216932698219</v>
+        <v>1.845791973757333</v>
       </c>
       <c r="R24">
-        <v>73.30159618931403</v>
+        <v>11.074751842544</v>
       </c>
       <c r="S24">
-        <v>0.02863733422219257</v>
+        <v>0.009111155105314919</v>
       </c>
       <c r="T24">
-        <v>0.02737826077528454</v>
+        <v>0.008637853029853561</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H25">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I25">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J25">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N25">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O25">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P25">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q25">
-        <v>8.233857729479501</v>
+        <v>1.851681394186</v>
       </c>
       <c r="R25">
-        <v>49.403146376877</v>
+        <v>11.110088365116</v>
       </c>
       <c r="S25">
-        <v>0.01930073133426221</v>
+        <v>0.009140226324482029</v>
       </c>
       <c r="T25">
-        <v>0.01845215240787446</v>
+        <v>0.008665414070760182</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H26">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I26">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J26">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N26">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O26">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P26">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q26">
-        <v>25.99726589664233</v>
+        <v>7.990116418867333</v>
       </c>
       <c r="R26">
-        <v>155.983595379854</v>
+        <v>47.940698513204</v>
       </c>
       <c r="S26">
-        <v>0.06093938722064729</v>
+        <v>0.03944062550756036</v>
       </c>
       <c r="T26">
-        <v>0.05826011673670318</v>
+        <v>0.03739178211784207</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H27">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I27">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J27">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>24.489942</v>
       </c>
       <c r="N27">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O27">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P27">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q27">
-        <v>13.294454811154</v>
+        <v>4.330768690024001</v>
       </c>
       <c r="R27">
-        <v>119.650093300386</v>
+        <v>38.97691821021601</v>
       </c>
       <c r="S27">
-        <v>0.03116312049294946</v>
+        <v>0.02137743896443975</v>
       </c>
       <c r="T27">
-        <v>0.04468949690678967</v>
+        <v>0.03040040046433494</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H28">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I28">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J28">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N28">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O28">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P28">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q28">
-        <v>11.19665472071178</v>
+        <v>3.670346828652</v>
       </c>
       <c r="R28">
-        <v>100.769892486406</v>
+        <v>33.03312145786799</v>
       </c>
       <c r="S28">
-        <v>0.0262457321594525</v>
+        <v>0.01811748004195493</v>
       </c>
       <c r="T28">
-        <v>0.03763771238575574</v>
+        <v>0.02576448234029422</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H29">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I29">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J29">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N29">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O29">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P29">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q29">
-        <v>17.3950468242375</v>
+        <v>4.652086757840666</v>
       </c>
       <c r="R29">
-        <v>104.370280945425</v>
+        <v>27.912520547044</v>
       </c>
       <c r="S29">
-        <v>0.04077519145120601</v>
+        <v>0.0229635216842916</v>
       </c>
       <c r="T29">
-        <v>0.03898246310399067</v>
+        <v>0.02177062327048489</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H30">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I30">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J30">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N30">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O30">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P30">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q30">
-        <v>17.59029328349089</v>
+        <v>3.067219752140445</v>
       </c>
       <c r="R30">
-        <v>158.312639551418</v>
+        <v>27.604977769264</v>
       </c>
       <c r="S30">
-        <v>0.04123286263983048</v>
+        <v>0.01514033829443405</v>
       </c>
       <c r="T30">
-        <v>0.05913001837597379</v>
+        <v>0.02153075249481193</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H31">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I31">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J31">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N31">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O31">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P31">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q31">
-        <v>11.85534666464989</v>
+        <v>3.077006416577333</v>
       </c>
       <c r="R31">
-        <v>106.698119981849</v>
+        <v>27.693057749196</v>
       </c>
       <c r="S31">
-        <v>0.0277897515802005</v>
+        <v>0.01518864699818611</v>
       </c>
       <c r="T31">
-        <v>0.03985191462340239</v>
+        <v>0.02159945127310892</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H32">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I32">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J32">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N32">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O32">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P32">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q32">
-        <v>9.418352079997664</v>
+        <v>2.781621292101667</v>
       </c>
       <c r="R32">
-        <v>56.51011247998599</v>
+        <v>16.68972775261</v>
       </c>
       <c r="S32">
-        <v>0.02207726791983516</v>
+        <v>0.01373057386580485</v>
       </c>
       <c r="T32">
-        <v>0.02110661535830597</v>
+        <v>0.01301730435904714</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H33">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I33">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J33">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>24.489942</v>
       </c>
       <c r="N33">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O33">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P33">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q33">
-        <v>4.816347096685999</v>
+        <v>1.50768246266</v>
       </c>
       <c r="R33">
-        <v>43.34712387017399</v>
+        <v>13.56914216394</v>
       </c>
       <c r="S33">
-        <v>0.01128985032044835</v>
+        <v>0.007442186856461215</v>
       </c>
       <c r="T33">
-        <v>0.01619021853372947</v>
+        <v>0.01058337535862824</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H34">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I34">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J34">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N34">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O34">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P34">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q34">
-        <v>4.056351029261555</v>
+        <v>1.27776797643</v>
       </c>
       <c r="R34">
-        <v>36.507159263354</v>
+        <v>11.49991178787</v>
       </c>
       <c r="S34">
-        <v>0.009508367035895379</v>
+        <v>0.006307288355014093</v>
       </c>
       <c r="T34">
-        <v>0.01363548105958788</v>
+        <v>0.008969460380891321</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H35">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I35">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J35">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N35">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O35">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P35">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q35">
-        <v>6.301919443762499</v>
+        <v>1.619543808868333</v>
       </c>
       <c r="R35">
-        <v>37.81151666257499</v>
+        <v>9.71726285321</v>
       </c>
       <c r="S35">
-        <v>0.01477213452920713</v>
+        <v>0.007994354213391898</v>
       </c>
       <c r="T35">
-        <v>0.014122660587409</v>
+        <v>0.007579067194629106</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H36">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I36">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J36">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N36">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O36">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P36">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q36">
-        <v>6.372653801095778</v>
+        <v>1.067799681862222</v>
       </c>
       <c r="R36">
-        <v>57.353884209862</v>
+        <v>9.610197136760002</v>
       </c>
       <c r="S36">
-        <v>0.01493794074931018</v>
+        <v>0.005270847777633523</v>
       </c>
       <c r="T36">
-        <v>0.02142176541855427</v>
+        <v>0.007495560319136117</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H37">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I37">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J37">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N37">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O37">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P37">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q37">
-        <v>4.294983532576777</v>
+        <v>1.071206740376667</v>
       </c>
       <c r="R37">
-        <v>38.65485179319099</v>
+        <v>9.640860663390001</v>
       </c>
       <c r="S37">
-        <v>0.01006773810902184</v>
+        <v>0.005287665620066111</v>
       </c>
       <c r="T37">
-        <v>0.01443764757715111</v>
+        <v>0.007519476614523381</v>
       </c>
     </row>
   </sheetData>
